--- a/docs/20140701_Phase 2/DanhSachCacViecCanLam.xlsx
+++ b/docs/20140701_Phase 2/DanhSachCacViecCanLam.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$21</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -68,58 +68,220 @@
     <t>Cơ chế tìm kiếm</t>
   </si>
   <si>
+    <t xml:space="preserve">Quản trị - SELLER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thêm , hủy, chỉnh sửa thông tin seller </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản trị - Sản phẩm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản trị - Thông tin category </t>
+  </si>
+  <si>
+    <t>Quản trị - Chức năng quảng cáo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản trị - Phần quyền account </t>
+  </si>
+  <si>
+    <t>Update giao diện Admin</t>
+  </si>
+  <si>
+    <t>update giao diện theo hướng Magento</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa ảnh quảng cáo, URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chia sẻ qua email </t>
+  </si>
+  <si>
+    <t>Update thông tin Footer</t>
+  </si>
+  <si>
+    <t>Update các nội dung ở Footer còn thiếu</t>
+  </si>
+  <si>
+    <t>Cơ chế zoom in sản phẩm</t>
+  </si>
+  <si>
+    <t>Cơ chế giảm giá</t>
+  </si>
+  <si>
+    <t>Cho phép Seller đăng SP với 1 mức giảm giá  - Hiển thị giảm giá trên sản phẩm</t>
+  </si>
+  <si>
+    <t>Chuẩn hóa lại nội dung email tương tác</t>
+  </si>
+  <si>
+    <t>Nội dung Email tương tác</t>
+  </si>
+  <si>
+    <t>Buy with 1 Click</t>
+  </si>
+  <si>
+    <t>Mua nhanh không cần điền lại thông tin</t>
+  </si>
+  <si>
+    <t>Thông báo khi mặt hàng còn 2 sản phẩm/hết hàng/còn hàng</t>
+  </si>
+  <si>
+    <t>Tự động update trên Details, Cart</t>
+  </si>
+  <si>
+    <t>Search theo giá</t>
+  </si>
+  <si>
+    <t>Gợi ý KH mua thêm SP để đạt được Free Shipping, Discount, etc</t>
+  </si>
+  <si>
+    <t>Bán từ khóa tìm kiếm</t>
+  </si>
+  <si>
+    <t>Admin được chọn từ khóa tìm kiếm gợi ý ( giống Lazada.vn)</t>
+  </si>
+  <si>
+    <t>Điều chỉnh ảnh tự động phù hợp với chiều ngang</t>
+  </si>
+  <si>
+    <t>Ảnh tự động điều chỉnh khi hiển thị vừa với chiều ngang, chiều dài theo tỷ lệ gốc</t>
+  </si>
+  <si>
+    <t>Seller Lever</t>
+  </si>
+  <si>
+    <t>Cơ chế lever cho Seller - Bạc, Vàng, Kim cương -&gt; ưu đãi về phí khác nhau</t>
+  </si>
+  <si>
+    <t>Ghi chú đặc biệt cho order</t>
+  </si>
+  <si>
+    <t>Buyer có thể muốn nhận đơn hàng với chính xác giờ bằng cách điền note* trong đơn hàng, và đơn hàng phải Bold Note này đối với seller, admin</t>
+  </si>
+  <si>
+    <t>Quản trị đơn hàng</t>
+  </si>
+  <si>
+    <t>Đa attribute - đa giá</t>
+  </si>
+  <si>
+    <t>1 sp có nhiều màu, mỗi màu một giá khác nhau</t>
+  </si>
+  <si>
+    <t>Viết review + rate về SP</t>
+  </si>
+  <si>
+    <t>Phóng to SP</t>
+  </si>
+  <si>
+    <t>Quản trị admin</t>
+  </si>
+  <si>
+    <t>Hủy quyền của seller, update thông tin seller, thay đổi - xóa sp (có thể restore lại sp trong 3 ngày)</t>
+  </si>
+  <si>
+    <t>History of chat</t>
+  </si>
+  <si>
+    <t>Xây dựng lịch sử chat, supporter sẽ nhìn được khi tư vấn qua chat</t>
+  </si>
+  <si>
+    <t>Process Giao hàng trả tiền</t>
+  </si>
+  <si>
+    <t>Hoàn thiện process giao hàng trả tiền trong thanh toán</t>
+  </si>
+  <si>
+    <t>Tổng hợp giao dịch</t>
+  </si>
+  <si>
+    <t>Admin có thể tổng hợp được giao dịch của seller theo ngày</t>
+  </si>
+  <si>
+    <t>Chia department cho chat</t>
+  </si>
+  <si>
+    <t>User chọn muốn chat với department nào</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Chat cơ bản không có phân bổ, Cần add thêm 1 Chat phân bổ</t>
+  </si>
+  <si>
+    <t>Chat phân bổ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tự động phân bổ cho các admin online </t>
+  </si>
+  <si>
+    <t>Load ảnh cần indicator</t>
+  </si>
+  <si>
+    <t>Load ảnh lên face sau luôn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK </t>
+  </si>
+  <si>
+    <t>Chia làm 2 phần. Filter cơ bản - SP 2, filter nâng cao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bộ filter Cơ bản </t>
+  </si>
+  <si>
     <t>Tìm kiếm được theo cá tiêu chí: 
+Seller 
 Tên
-Nội Dung
-Danh mục</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quản trị - SELLER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thêm , hủy, chỉnh sửa thông tin seller </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quản trị - Sản phẩm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hủy quyền đăng sản phẩm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quản trị - Thông tin category </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thêm, xóa, Chỉnh sửa thông tin category, chỉnh sauwr </t>
-  </si>
-  <si>
-    <t>Quản trị - Chức năng quảng cáo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quản trị - Phần quyền account </t>
-  </si>
-  <si>
-    <t>Update giao diện Admin</t>
-  </si>
-  <si>
-    <t>update giao diện theo hướng Magento</t>
-  </si>
-  <si>
-    <t>Chỉnh sửa ảnh quảng cáo, URL</t>
-  </si>
-  <si>
-    <t>Quản trị Sản phẩm hot, sản phẩm sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chia sẻ qua email </t>
-  </si>
-  <si>
-    <t>Bộ filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chức năng resend active email </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+Nội Dung (Description)
+Danh mục
+Giá
+Từ khóa</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Hủy sản phẩm (7 ngày)</t>
+  </si>
+  <si>
+    <t>Thêm, xóa, Chỉnh sửa thông tin category, chỉnh sửa ảnh</t>
+  </si>
+  <si>
+    <t>admin (Chỉnh sửa thông tin - 4, ảnh)</t>
+  </si>
+  <si>
+    <t>HỦY</t>
+  </si>
+  <si>
+    <t>admin (Chỉ set lên quyền admin ) - đưa lên được.</t>
+  </si>
+  <si>
+    <t>Quản trị Sản phẩm hot, sản phẩm sales (Chỉ cho trang home)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản trị sản phẩm - </t>
+  </si>
+  <si>
+    <t>Đến sau giao diện</t>
+  </si>
+  <si>
+    <t>Review + Rate về SP + hot trong list sản phẩm (Có thể cho admin set )</t>
+  </si>
+  <si>
+    <t>Rate 1 + hot 1 + review 3</t>
+  </si>
+  <si>
+    <t>xong</t>
+  </si>
+  <si>
+    <t>HỦy</t>
+  </si>
+  <si>
+    <t>Hủy</t>
   </si>
 </sst>
 </file>
@@ -143,15 +305,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,11 +354,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -197,10 +388,70 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,22 +754,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" customWidth="1"/>
     <col min="3" max="3" width="74.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -531,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -544,225 +795,626 @@
       <c r="D3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="10">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="6">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="10">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="6">
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>27</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="27">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <v>28</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="6">
+      <c r="B30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="7"/>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>31</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="14">
+        <v>1</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>32</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>33</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="22">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>34</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="10">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="19">
+        <v>34</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="30">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="18" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D20"/>
+  <autoFilter ref="A2:D21"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/docs/20140701_Phase 2/DanhSachCacViecCanLam.xlsx
+++ b/docs/20140701_Phase 2/DanhSachCacViecCanLam.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
   <si>
     <t>STT</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>Hủy</t>
+  </si>
+  <si>
+    <t>Chức năng điểm thưởng khi mua hàng</t>
+  </si>
+  <si>
+    <t>Chức năng nhập phiếu giảm giá khi mua hàng</t>
+  </si>
+  <si>
+    <t>Chức năng nhắc việc, thống kê hàng ngày</t>
+  </si>
+  <si>
+    <t>VD: nhắc admin các mặt hàng phải ship trong hôm nay</t>
   </si>
 </sst>
 </file>
@@ -463,6 +475,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -510,7 +525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,7 +560,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -754,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F39"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,6 +1426,44 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="19">
+        <v>36</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>37</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>38</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="30">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/20140701_Phase 2/DanhSachCacViecCanLam.xlsx
+++ b/docs/20140701_Phase 2/DanhSachCacViecCanLam.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$42</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -294,6 +294,21 @@
   </si>
   <si>
     <t>VD: nhắc admin các mặt hàng phải ship trong hôm nay</t>
+  </si>
+  <si>
+    <t>Một seller bán nhiều sản phẩm - trong 1 trang (Giống coupang)</t>
+  </si>
+  <si>
+    <t>Sau</t>
+  </si>
+  <si>
+    <t>Quản trị gian hàng seller</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>Tự động update số lượng SL cho buyer mà ko cần F5</t>
   </si>
 </sst>
 </file>
@@ -381,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -464,6 +479,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,7 +578,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -769,10 +787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F42"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +870,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -871,7 +890,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -903,7 +922,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -918,7 +937,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -953,7 +972,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -1050,7 +1069,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -1068,7 +1087,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1085,7 +1104,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -1118,7 +1137,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1133,7 +1152,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -1224,7 +1243,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -1257,8 +1276,11 @@
       <c r="E28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>27</v>
       </c>
@@ -1275,7 +1297,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -1312,7 +1334,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -1329,7 +1351,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>31</v>
       </c>
@@ -1345,8 +1367,11 @@
       <c r="E33" s="28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -1361,7 +1386,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>33</v>
       </c>
@@ -1378,7 +1403,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>34</v>
       </c>
@@ -1395,7 +1420,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>34</v>
       </c>
@@ -1412,7 +1437,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
         <v>63</v>
       </c>
@@ -1423,12 +1448,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>36</v>
       </c>
@@ -1440,7 +1465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>37</v>
       </c>
@@ -1452,7 +1477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>38</v>
       </c>
@@ -1466,8 +1491,33 @@
         <v>3</v>
       </c>
     </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:D21"/>
+  <autoFilter ref="A2:D42">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
